--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D88F7-B818-4521-9B46-1221E108F0C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5989AC-675F-4338-8AF4-7D62CF698661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>what</t>
   </si>
@@ -62,13 +62,25 @@
   </si>
   <si>
     <t>Sejong, South Korea</t>
+  </si>
+  <si>
+    <t>Dec. 2019 - Present</t>
+  </si>
+  <si>
+    <t>NVDA Expert</t>
+  </si>
+  <si>
+    <t>NV Access</t>
+  </si>
+  <si>
+    <t>Lucia South, QLD, Australia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +93,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -410,36 +431,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -448,6 +469,20 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5989AC-675F-4338-8AF4-7D62CF698661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE9379-E589-4B0C-B2A3-0121ABF589E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,13 +67,13 @@
     <t>Dec. 2019 - Present</t>
   </si>
   <si>
-    <t>NVDA Expert</t>
-  </si>
-  <si>
     <t>NV Access</t>
   </si>
   <si>
     <t>Lucia South, QLD, Australia</t>
+  </si>
+  <si>
+    <t>Certified Expert with NVDA (Non-Visual Desktop Access) Screen Reader</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -432,16 +432,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE9379-E589-4B0C-B2A3-0121ABF589E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13BF87-96E9-4EAC-8CD5-B1B520090C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>what</t>
   </si>
@@ -74,13 +74,25 @@
   </si>
   <si>
     <t>Certified Expert with NVDA (Non-Visual Desktop Access) Screen Reader</t>
+  </si>
+  <si>
+    <t>Feb. 2020 - Present</t>
+  </si>
+  <si>
+    <t>What is Data Science?</t>
+  </si>
+  <si>
+    <t>IBM and Coursera</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/account/accomplishments/verify/93RAJQMRLTLY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +109,12 @@
     <font>
       <sz val="4"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -121,10 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -432,49 +451,49 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -483,6 +502,20 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13BF87-96E9-4EAC-8CD5-B1B520090C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02456ADE-97FD-4257-99E8-799A79392771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="0" windowWidth="19190" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>what</t>
   </si>
@@ -74,25 +74,13 @@
   </si>
   <si>
     <t>Certified Expert with NVDA (Non-Visual Desktop Access) Screen Reader</t>
-  </si>
-  <si>
-    <t>Feb. 2020 - Present</t>
-  </si>
-  <si>
-    <t>What is Data Science?</t>
-  </si>
-  <si>
-    <t>IBM and Coursera</t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/account/accomplishments/verify/93RAJQMRLTLY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,12 +97,6 @@
     <font>
       <sz val="4"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -139,11 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,11 +405,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -451,49 +430,49 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>17</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -502,20 +481,6 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02456ADE-97FD-4257-99E8-799A79392771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266DCF9D-089A-4DEA-B6B6-801B166A5CDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5" yWindow="0" windowWidth="19190" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>what</t>
   </si>
@@ -74,6 +74,54 @@
   </si>
   <si>
     <t>Certified Expert with NVDA (Non-Visual Desktop Access) Screen Reader</t>
+  </si>
+  <si>
+    <t>Python for Data Science and AI</t>
+  </si>
+  <si>
+    <t>Apr. 2020 - Present</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Data Analysis with Python</t>
+  </si>
+  <si>
+    <t>Databases and SQL for Data Science</t>
+  </si>
+  <si>
+    <t>Data Science Methodology</t>
+  </si>
+  <si>
+    <t>Mar. 2020 - Present</t>
+  </si>
+  <si>
+    <t>Open Source Tools for Data Science</t>
+  </si>
+  <si>
+    <t>\href{https://www.youracclaim.com/badges/13a8db8a-3803-4880-8164-d0cb9aecfecc/public_url}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://www.youracclaim.com/badges/49264c60-e6a1-4227-b933-567c232cf610/public_url}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://www.coursera.org}{Coursera}</t>
+  </si>
+  <si>
+    <t>\href{https://www.youracclaim.com/badges/6e5fec1c-53ff-4ec1-8602-956e88ece5a8/public_url}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://www.youracclaim.com/badges/98ce261d-0fa6-47ff-95f0-c31e0cb2d9fe/public_url}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://www.youracclaim.com/badges/a78f0b2a-f708-46a4-81ae-16ea6bde3618/public_url}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://jooyoungseo.github.io/certificates/NVDA_Certified_Expert.pdf}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://jooyoungseo.github.io/certificates/CPACC_Certificate.pdf}{See certificate.}</t>
   </si>
 </sst>
 </file>
@@ -405,9 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -430,57 +480,148 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266DCF9D-089A-4DEA-B6B6-801B166A5CDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FD269-51E0-4860-AB8E-E5A1E0F21F39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>what</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>\href{https://jooyoungseo.github.io/certificates/CPACC_Certificate.pdf}{See certificate.}</t>
+  </si>
+  <si>
+    <t>Jun. 2020 - Present</t>
+  </si>
+  <si>
+    <t>RStudio PBC</t>
+  </si>
+  <si>
+    <t>RStudio-Certified Tidyverse Instructor/Data Scientist</t>
+  </si>
+  <si>
+    <t>\href{https://education.rstudio.com/trainers/}{Find me at RStudio official trainer list}</t>
+  </si>
+  <si>
+    <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+tidyverse.pdf}{See certificate.}</t>
   </si>
 </sst>
 </file>
@@ -169,10 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,11 +469,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -479,25 +493,25 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="A2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -509,12 +523,12 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -526,15 +540,15 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -543,12 +557,12 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -560,60 +574,63 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -622,6 +639,20 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FD269-51E0-4860-AB8E-E5A1E0F21F39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2449A-0362-4A92-BC44-38343E06C682}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,10 +133,10 @@
     <t>RStudio-Certified Tidyverse Instructor/Data Scientist</t>
   </si>
   <si>
-    <t>\href{https://education.rstudio.com/trainers/}{Find me at RStudio official trainer list}</t>
-  </si>
-  <si>
     <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+tidyverse.pdf}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://education.rstudio.com/trainers/people/seo+jooyoung/}{Find me at RStudio official trainer list}</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -503,10 +505,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2449A-0362-4A92-BC44-38343E06C682}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BC182-F6A8-444F-8A0C-4204A8945AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>what</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Certified Professional in Accessibility Core Competencies</t>
   </si>
   <si>
-    <t>English Teacher Certificate for Secondary Education</t>
-  </si>
-  <si>
     <t>when</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Korean Ministry of Education</t>
   </si>
   <si>
-    <t>General Education Teacher Certificate for Secondary Education</t>
-  </si>
-  <si>
     <t>Sejong, South Korea</t>
   </si>
   <si>
@@ -130,13 +124,34 @@
     <t>RStudio PBC</t>
   </si>
   <si>
-    <t>RStudio-Certified Tidyverse Instructor/Data Scientist</t>
-  </si>
-  <si>
     <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+tidyverse.pdf}{See certificate.}</t>
   </si>
   <si>
-    <t>\href{https://education.rstudio.com/trainers/people/seo+jooyoung/}{Find me at RStudio official trainer list}</t>
+    <t>Aug. 2020 - Present</t>
+  </si>
+  <si>
+    <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+shiny.pdf}{See certificate.}</t>
+  </si>
+  <si>
+    <t>Certified Tidyverse Instructor/Data Scientist</t>
+  </si>
+  <si>
+    <t>Certified Shiny/Interactive Data Science Instructor</t>
+  </si>
+  <si>
+    <t>\href{https://education.rstudio.com/trainers/people/seo+jooyoung/}{Find me in the Rstudio's trusted trainer list}</t>
+  </si>
+  <si>
+    <t>Certified English Teacher (Secondary Education)</t>
+  </si>
+  <si>
+    <t>Certified General Education Teacher (Secondary Education)</t>
+  </si>
+  <si>
+    <t>\href{https://jooyoungseo.github.io/certificates/Teacher_Certificate_for_English.pdf}{See certificate.}</t>
+  </si>
+  <si>
+    <t>\href{https://jooyoungseo.github.io/certificates/Teacher_Certificate_for_Education.pdf}{See certificate.}</t>
   </si>
 </sst>
 </file>
@@ -469,11 +484,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -482,180 +495,203 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>22</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BC182-F6A8-444F-8A0C-4204A8945AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C75BA6-CAA6-4507-B627-D9159D5865CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -576,42 +578,42 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -623,15 +625,15 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -640,15 +642,15 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -657,41 +659,41 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C75BA6-CAA6-4507-B627-D9159D5865CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A484594-4231-4D33-AC43-962409CD0A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,16 +142,16 @@
     <t>\href{https://education.rstudio.com/trainers/people/seo+jooyoung/}{Find me in the Rstudio's trusted trainer list}</t>
   </si>
   <si>
-    <t>Certified English Teacher (Secondary Education)</t>
-  </si>
-  <si>
-    <t>Certified General Education Teacher (Secondary Education)</t>
-  </si>
-  <si>
     <t>\href{https://jooyoungseo.github.io/certificates/Teacher_Certificate_for_English.pdf}{See certificate.}</t>
   </si>
   <si>
     <t>\href{https://jooyoungseo.github.io/certificates/Teacher_Certificate_for_Education.pdf}{See certificate.}</t>
+  </si>
+  <si>
+    <t>Licensed English Teacher (Secondary Education)</t>
+  </si>
+  <si>
+    <t>Licensed General Education Teacher (Secondary Education)</t>
   </si>
 </sst>
 </file>
@@ -486,9 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -579,7 +577,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -591,12 +589,12 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -608,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">

--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A484594-4231-4D33-AC43-962409CD0A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBBC8D-F346-490F-9AE7-50C11D2CB1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>what</t>
   </si>
@@ -124,21 +124,9 @@
     <t>RStudio PBC</t>
   </si>
   <si>
-    <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+tidyverse.pdf}{See certificate.}</t>
-  </si>
-  <si>
-    <t>Aug. 2020 - Present</t>
-  </si>
-  <si>
     <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+shiny.pdf}{See certificate.}</t>
   </si>
   <si>
-    <t>Certified Tidyverse Instructor/Data Scientist</t>
-  </si>
-  <si>
-    <t>Certified Shiny/Interactive Data Science Instructor</t>
-  </si>
-  <si>
     <t>\href{https://education.rstudio.com/trainers/people/seo+jooyoung/}{Find me in the Rstudio's trusted trainer list}</t>
   </si>
   <si>
@@ -152,6 +140,12 @@
   </si>
   <si>
     <t>Licensed General Education Teacher (Secondary Education)</t>
+  </si>
+  <si>
+    <t>Double-Certified Data Science Instructor for Tidyverse and Shiny</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
   </si>
 </sst>
 </file>
@@ -488,9 +482,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,41 +501,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -558,7 +541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,9 +558,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -589,12 +572,12 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -606,10 +589,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -626,7 +609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -643,7 +626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -660,7 +643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -677,7 +660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
